--- a/df_1/df_1_9.xlsx
+++ b/df_1/df_1_9.xlsx
@@ -659,377 +659,377 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>0.3751 %</t>
+          <t>0,3751</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0.2107 %</t>
+          <t>0,2107</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1.5509 %</t>
+          <t>1,5509</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>0.2166 %</t>
+          <t>0,2166</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0.4077 %</t>
+          <t>0,4077</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.4868 %</t>
+          <t>0,4868</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2.0812 %</t>
+          <t>2,0812</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>0.4729 %</t>
+          <t>0,4729</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>0.2954 %</t>
+          <t>0,2954</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>0.6363 %</t>
+          <t>0,6363</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>1.6622 %</t>
+          <t>1,6622</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>0.3908 %</t>
+          <t>0,3908</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>0.4186 %</t>
+          <t>0,4186</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>0.4204 %</t>
+          <t>0,4204</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>1.233 %</t>
+          <t>1,233</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>1.3989 %</t>
+          <t>1,3989</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>0.3427 %</t>
+          <t>0,3427</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>0.5264 %</t>
+          <t>0,5264</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>0.903 %</t>
+          <t>0,903</t>
         </is>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>1.9724 %</t>
+          <t>1,9724</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>0.3162 %</t>
+          <t>0,3162</t>
         </is>
       </c>
       <c r="W2" t="inlineStr">
         <is>
-          <t>0.2666 %</t>
+          <t>0,2666</t>
         </is>
       </c>
       <c r="X2" t="inlineStr">
         <is>
-          <t>0.6548 %</t>
+          <t>0,6548</t>
         </is>
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>1.6877 %</t>
+          <t>1,6877</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>0.6714 %</t>
+          <t>0,6714</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>0.7094 %</t>
+          <t>0,7094</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>0.6682 %</t>
+          <t>0,6682</t>
         </is>
       </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>1.9284 %</t>
+          <t>1,9284</t>
         </is>
       </c>
       <c r="AD2" t="inlineStr">
         <is>
-          <t>0.5577 %</t>
+          <t>0,5577</t>
         </is>
       </c>
       <c r="AE2" t="inlineStr">
         <is>
-          <t>0.3582 %</t>
+          <t>0,3582</t>
         </is>
       </c>
       <c r="AF2" t="inlineStr">
         <is>
-          <t>1.924 %</t>
+          <t>1,924</t>
         </is>
       </c>
       <c r="AG2" t="inlineStr">
         <is>
-          <t>1.2608 %</t>
+          <t>1,2608</t>
         </is>
       </c>
       <c r="AH2" t="inlineStr">
         <is>
-          <t>0.2437 %</t>
+          <t>0,2437</t>
         </is>
       </c>
       <c r="AI2" t="inlineStr">
         <is>
-          <t>0.2238 %</t>
+          <t>0,2238</t>
         </is>
       </c>
       <c r="AJ2" t="inlineStr">
         <is>
-          <t>1.4154 %</t>
+          <t>1,4154</t>
         </is>
       </c>
       <c r="AK2" t="inlineStr">
         <is>
-          <t>1.1549 %</t>
+          <t>1,1549</t>
         </is>
       </c>
       <c r="AL2" t="inlineStr">
         <is>
-          <t>0.3119 %</t>
+          <t>0,3119</t>
         </is>
       </c>
       <c r="AM2" t="inlineStr">
         <is>
-          <t>0.1988 %</t>
+          <t>0,1988</t>
         </is>
       </c>
       <c r="AN2" t="inlineStr">
         <is>
-          <t>1.7378 %</t>
+          <t>1,7378</t>
         </is>
       </c>
       <c r="AO2" t="inlineStr">
         <is>
-          <t>0.9435 %</t>
+          <t>0,9435</t>
         </is>
       </c>
       <c r="AP2" t="inlineStr">
         <is>
-          <t>0.2324 %</t>
+          <t>0,2324</t>
         </is>
       </c>
       <c r="AQ2" t="inlineStr">
         <is>
-          <t>0.3665 %</t>
+          <t>0,3665</t>
         </is>
       </c>
       <c r="AR2" t="inlineStr">
         <is>
-          <t>1.5006 %</t>
+          <t>1,5006</t>
         </is>
       </c>
       <c r="AS2" t="inlineStr">
         <is>
-          <t>0.2547 %</t>
+          <t>0,2547</t>
         </is>
       </c>
       <c r="AT2" t="inlineStr">
         <is>
-          <t>0.3255 %</t>
+          <t>0,3255</t>
         </is>
       </c>
       <c r="AU2" t="inlineStr">
         <is>
-          <t>0.1919 %</t>
+          <t>0,1919</t>
         </is>
       </c>
       <c r="AV2" t="inlineStr">
         <is>
-          <t>0.9456 %</t>
+          <t>0,9456</t>
         </is>
       </c>
       <c r="AW2" t="inlineStr">
         <is>
-          <t>0.5963 %</t>
+          <t>0,5963</t>
         </is>
       </c>
       <c r="AX2" t="inlineStr">
         <is>
-          <t>0.1991 %</t>
+          <t>0,1991</t>
         </is>
       </c>
       <c r="AY2" t="inlineStr">
         <is>
-          <t>0.4295 %</t>
+          <t>0,4295</t>
         </is>
       </c>
       <c r="AZ2" t="inlineStr">
         <is>
-          <t>0.8801 %</t>
+          <t>0,8801</t>
         </is>
       </c>
       <c r="BA2" t="inlineStr">
         <is>
-          <t>0.6164 %</t>
+          <t>0,6164</t>
         </is>
       </c>
       <c r="BB2" t="inlineStr">
         <is>
-          <t>0.2965 %</t>
+          <t>0,2965</t>
         </is>
       </c>
       <c r="BC2" t="inlineStr">
         <is>
-          <t>0.3333 %</t>
+          <t>0,3333</t>
         </is>
       </c>
       <c r="BD2" t="inlineStr">
         <is>
-          <t>2.0701 %</t>
+          <t>2,0701</t>
         </is>
       </c>
       <c r="BE2" t="inlineStr">
         <is>
-          <t>0.4424 %</t>
+          <t>0,4424</t>
         </is>
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>0.1243 %</t>
+          <t>0,1243</t>
         </is>
       </c>
       <c r="BG2" t="inlineStr">
         <is>
-          <t>0.2695 %</t>
+          <t>0,2695</t>
         </is>
       </c>
       <c r="BH2" t="inlineStr">
         <is>
-          <t>2.6262 %</t>
+          <t>2,6262</t>
         </is>
       </c>
       <c r="BI2" t="inlineStr">
         <is>
-          <t>0.1689 %</t>
+          <t>0,1689</t>
         </is>
       </c>
       <c r="BJ2" t="inlineStr">
         <is>
-          <t>0.2959 %</t>
+          <t>0,2959</t>
         </is>
       </c>
       <c r="BK2" t="inlineStr">
         <is>
-          <t>0.6003 %</t>
+          <t>0,6003</t>
         </is>
       </c>
       <c r="BL2" t="inlineStr">
         <is>
-          <t>0.3329 %</t>
+          <t>0,3329</t>
         </is>
       </c>
       <c r="BM2" t="inlineStr">
         <is>
-          <t>0.184 %</t>
+          <t>0,184</t>
         </is>
       </c>
       <c r="BN2" t="inlineStr">
         <is>
-          <t>0.3163 %</t>
+          <t>0,3163</t>
         </is>
       </c>
       <c r="BO2" t="inlineStr">
         <is>
-          <t>0.5794 %</t>
+          <t>0,5794</t>
         </is>
       </c>
       <c r="BP2" t="inlineStr">
         <is>
-          <t>0.4728 %</t>
+          <t>0,4728</t>
         </is>
       </c>
       <c r="BQ2" t="inlineStr">
         <is>
-          <t>0.9575 %</t>
+          <t>0,9575</t>
         </is>
       </c>
       <c r="BR2" t="inlineStr">
         <is>
-          <t>0.5564 %</t>
+          <t>0,5564</t>
         </is>
       </c>
       <c r="BS2" t="inlineStr">
         <is>
-          <t>0.465 %</t>
+          <t>0,465</t>
         </is>
       </c>
       <c r="BT2" t="inlineStr">
         <is>
-          <t>0.7143 %</t>
+          <t>0,7143</t>
         </is>
       </c>
       <c r="BU2" t="inlineStr">
         <is>
-          <t>0.4963 %</t>
+          <t>0,4963</t>
         </is>
       </c>
       <c r="BV2" t="inlineStr">
         <is>
-          <t>0.4648 %</t>
+          <t>0,4648</t>
         </is>
       </c>
       <c r="BW2" t="inlineStr">
         <is>
-          <t>0.1678 %</t>
+          <t>0,1678</t>
         </is>
       </c>
       <c r="BX2" t="inlineStr">
         <is>
-          <t>0.3722 %</t>
+          <t>0,3722</t>
         </is>
       </c>
     </row>
@@ -1041,227 +1041,227 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1.7134 %</t>
+          <t>1,7134</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0.176 %</t>
+          <t>0,176</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.0888 %</t>
+          <t>0,0888</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>0.1581 %</t>
+          <t>0,1581</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0.4762 %</t>
+          <t>0,4762</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.4127 %</t>
+          <t>0,4127</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>0.4435 %</t>
+          <t>0,4435</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>0.2927 %</t>
+          <t>0,2927</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>1.1574 %</t>
+          <t>1,1574</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>1.4333 %</t>
+          <t>1,4333</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>0.5318 %</t>
+          <t>0,5318</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>0.2736 %</t>
+          <t>0,2736</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>0.156 %</t>
+          <t>0,156</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>2.0599 %</t>
+          <t>2,0599</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>1.405 %</t>
+          <t>1,405</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>0.2801 %</t>
+          <t>0,2801</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>0.2957 %</t>
+          <t>0,2957</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>1.1712 %</t>
+          <t>1,1712</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>1.8301 %</t>
+          <t>1,8301</t>
         </is>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>0.5711 %</t>
+          <t>0,5711</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>0.3073 %</t>
+          <t>0,3073</t>
         </is>
       </c>
       <c r="W3" t="inlineStr">
         <is>
-          <t>1.4179 %</t>
+          <t>1,4179</t>
         </is>
       </c>
       <c r="X3" t="inlineStr">
         <is>
-          <t>2.1911 %</t>
+          <t>2,1911</t>
         </is>
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>0.9074 %</t>
+          <t>0,9074</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>0.5984 %</t>
+          <t>0,5984</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>0.6366 %</t>
+          <t>0,6366</t>
         </is>
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>1.4819 %</t>
+          <t>1,4819</t>
         </is>
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>1.4332 %</t>
+          <t>1,4332</t>
         </is>
       </c>
       <c r="AD3" t="inlineStr">
         <is>
-          <t>0.2997 %</t>
+          <t>0,2997</t>
         </is>
       </c>
       <c r="AE3" t="inlineStr">
         <is>
-          <t>0.6438 %</t>
+          <t>0,6438</t>
         </is>
       </c>
       <c r="AF3" t="inlineStr">
         <is>
-          <t>0.9226 %</t>
+          <t>0,9226</t>
         </is>
       </c>
       <c r="AG3" t="inlineStr">
         <is>
-          <t>0.9414 %</t>
+          <t>0,9414</t>
         </is>
       </c>
       <c r="AH3" t="inlineStr">
         <is>
-          <t>0.3078 %</t>
+          <t>0,3078</t>
         </is>
       </c>
       <c r="AI3" t="inlineStr">
         <is>
-          <t>0.5724 %</t>
+          <t>0,5724</t>
         </is>
       </c>
       <c r="AJ3" t="inlineStr">
         <is>
-          <t>0.8944 %</t>
+          <t>0,8944</t>
         </is>
       </c>
       <c r="AK3" t="inlineStr">
         <is>
-          <t>0.6753 %</t>
+          <t>0,6753</t>
         </is>
       </c>
       <c r="AL3" t="inlineStr">
         <is>
-          <t>0.5578 %</t>
+          <t>0,5578</t>
         </is>
       </c>
       <c r="AM3" t="inlineStr">
         <is>
-          <t>0.4915 %</t>
+          <t>0,4915</t>
         </is>
       </c>
       <c r="AN3" t="inlineStr">
         <is>
-          <t>0.4805 %</t>
+          <t>0,4805</t>
         </is>
       </c>
       <c r="AO3" t="inlineStr">
         <is>
-          <t>0.5316 %</t>
+          <t>0,5316</t>
         </is>
       </c>
       <c r="AP3" t="inlineStr">
         <is>
-          <t>0.287 %</t>
+          <t>0,287</t>
         </is>
       </c>
       <c r="AQ3" t="inlineStr">
         <is>
-          <t>0.2869 %</t>
+          <t>0,2869</t>
         </is>
       </c>
       <c r="AR3" t="inlineStr">
         <is>
-          <t>0.3445 %</t>
+          <t>0,3445</t>
         </is>
       </c>
       <c r="AS3" t="inlineStr">
         <is>
-          <t>0.5333 %</t>
+          <t>0,5333</t>
         </is>
       </c>
       <c r="AT3" t="inlineStr">
         <is>
-          <t>0.7643 %</t>
+          <t>0,7643</t>
         </is>
       </c>
     </row>
@@ -1273,247 +1273,247 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>0.7643 %</t>
+          <t>0,7643</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0.8617 %</t>
+          <t>0,8617</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.7405 %</t>
+          <t>0,7405</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>0.9739 %</t>
+          <t>0,9739</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>1.0925 %</t>
+          <t>1,0925</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2.4698 %</t>
+          <t>2,4698</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2.5981 %</t>
+          <t>2,5981</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>1.597 %</t>
+          <t>1,597</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>1.1372 %</t>
+          <t>1,1372</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>0.7545 %</t>
+          <t>0,7545</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>0.4508 %</t>
+          <t>0,4508</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>0.3203 %</t>
+          <t>0,3203</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>0.2013 %</t>
+          <t>0,2013</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>0.0886 %</t>
+          <t>0,0886</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>0.0568 %</t>
+          <t>0,0568</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>0.0298 %</t>
+          <t>0,0298</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>0.0385 %</t>
+          <t>0,0385</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>0.0343 %</t>
+          <t>0,0343</t>
         </is>
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>0.0266 %</t>
+          <t>0,0266</t>
         </is>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>0.0314 %</t>
+          <t>0,0314</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>0.054 %</t>
+          <t>0,054</t>
         </is>
       </c>
       <c r="W4" t="inlineStr">
         <is>
-          <t>0.0915 %</t>
+          <t>0,0915</t>
         </is>
       </c>
       <c r="X4" t="inlineStr">
         <is>
-          <t>0.1279 %</t>
+          <t>0,1279</t>
         </is>
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>0.1741 %</t>
+          <t>0,1741</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>0.1914 %</t>
+          <t>0,1914</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>0.2756 %</t>
+          <t>0,2756</t>
         </is>
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>0.3534 %</t>
+          <t>0,3534</t>
         </is>
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>0.6514 %</t>
+          <t>0,6514</t>
         </is>
       </c>
       <c r="AD4" t="inlineStr">
         <is>
-          <t>1.1701 %</t>
+          <t>1,1701</t>
         </is>
       </c>
       <c r="AE4" t="inlineStr">
         <is>
-          <t>1.4577 %</t>
+          <t>1,4577</t>
         </is>
       </c>
       <c r="AF4" t="inlineStr">
         <is>
-          <t>1.6594 %</t>
+          <t>1,6594</t>
         </is>
       </c>
       <c r="AG4" t="inlineStr">
         <is>
-          <t>2.1161 %</t>
+          <t>2,1161</t>
         </is>
       </c>
       <c r="AH4" t="inlineStr">
         <is>
-          <t>2.2341 %</t>
+          <t>2,2341</t>
         </is>
       </c>
       <c r="AI4" t="inlineStr">
         <is>
-          <t>1.6442 %</t>
+          <t>1,6442</t>
         </is>
       </c>
       <c r="AJ4" t="inlineStr">
         <is>
-          <t>1.0981 %</t>
+          <t>1,0981</t>
         </is>
       </c>
       <c r="AK4" t="inlineStr">
         <is>
-          <t>1.0983 %</t>
+          <t>1,0983</t>
         </is>
       </c>
       <c r="AL4" t="inlineStr">
         <is>
-          <t>1.1942 %</t>
+          <t>1,1942</t>
         </is>
       </c>
       <c r="AM4" t="inlineStr">
         <is>
-          <t>1.2002 %</t>
+          <t>1,2002</t>
         </is>
       </c>
       <c r="AN4" t="inlineStr">
         <is>
-          <t>1.2479 %</t>
+          <t>1,2479</t>
         </is>
       </c>
       <c r="AO4" t="inlineStr">
         <is>
-          <t>0.9117 %</t>
+          <t>0,9117</t>
         </is>
       </c>
       <c r="AP4" t="inlineStr">
         <is>
-          <t>0.8941 %</t>
+          <t>0,8941</t>
         </is>
       </c>
       <c r="AQ4" t="inlineStr">
         <is>
-          <t>0.4318 %</t>
+          <t>0,4318</t>
         </is>
       </c>
       <c r="AR4" t="inlineStr">
         <is>
-          <t>0.4114 %</t>
+          <t>0,4114</t>
         </is>
       </c>
       <c r="AS4" t="inlineStr">
         <is>
-          <t>0.4729 %</t>
+          <t>0,4729</t>
         </is>
       </c>
       <c r="AT4" t="inlineStr">
         <is>
-          <t>0.8497 %</t>
+          <t>0,8497</t>
         </is>
       </c>
       <c r="AU4" t="inlineStr">
         <is>
-          <t>0.9298 %</t>
+          <t>0,9298</t>
         </is>
       </c>
       <c r="AV4" t="inlineStr">
         <is>
-          <t>0.6629 %</t>
+          <t>0,6629</t>
         </is>
       </c>
       <c r="AW4" t="inlineStr">
         <is>
-          <t>0.927 %</t>
+          <t>0,927</t>
         </is>
       </c>
       <c r="AX4" t="inlineStr">
         <is>
-          <t>1.2396 %</t>
+          <t>1,2396</t>
         </is>
       </c>
     </row>
